--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed3/result_data_RandomForest.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.82149999999999</v>
+        <v>12.66959999999999</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.46830000000001</v>
+        <v>12.5027</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.284099999999992</v>
+        <v>-7.335299999999994</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.707600000000006</v>
+        <v>8.653300000000005</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.066200000000002</v>
+        <v>6.194400000000003</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.77449999999999</v>
+        <v>-13.20469999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.781800000000006</v>
+        <v>4.781500000000007</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.307200000000002</v>
+        <v>-8.255500000000001</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
